--- a/medicine/Enfance/Edouard_Ouspenski/Edouard_Ouspenski.xlsx
+++ b/medicine/Enfance/Edouard_Ouspenski/Edouard_Ouspenski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Edouard Nikolaïevitch Ouspenski (russe : russe : Эдуард Николаевич Успенский), né le 22 décembre 1937 à Iegorievsk et mort le 14 août 2018 à Moscou (Russie)[1], est un écrivain soviétique puis russe de littérature d'enfance et de jeunesse et scénariste d'une soixantaine de dessins animés[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edouard Nikolaïevitch Ouspenski (russe : russe : Эдуард Николаевич Успенский), né le 22 décembre 1937 à Iegorievsk et mort le 14 août 2018 à Moscou (Russie), est un écrivain soviétique puis russe de littérature d'enfance et de jeunesse et scénariste d'une soixantaine de dessins animés.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Edouard Ouspenski naît à Iegorievsk près de Moscou dans la RSFR. Il fait ses études à l'Institut d'aviation de Moscou (MAI) et devient ingénieur. Il commence à écrire les histoires pour enfants en 1960[3].
-Edouard Ouspenski est le créateur de Tchebourachka et de Guéna le crocodile[4], personnages de contes, célèbres dans les anciens pays de l'Union soviétique[3],[5].
-Il est également le créateur d'ABVGDeïka, émission éducative pour la jeunesse animée par des clowns, diffusée sur la télévision d'État soviétique de 1975 à 1977, et de l'émission musicale radiophonique russe V nachu gavan zakhodili korabli (В нашу гавань заходили корабли) diffusée sur Radio Rossii de 1997 à 2011[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edouard Ouspenski naît à Iegorievsk près de Moscou dans la RSFR. Il fait ses études à l'Institut d'aviation de Moscou (MAI) et devient ingénieur. Il commence à écrire les histoires pour enfants en 1960.
+Edouard Ouspenski est le créateur de Tchebourachka et de Guéna le crocodile, personnages de contes, célèbres dans les anciens pays de l'Union soviétique,.
+Il est également le créateur d'ABVGDeïka, émission éducative pour la jeunesse animée par des clowns, diffusée sur la télévision d'État soviétique de 1975 à 1977, et de l'émission musicale radiophonique russe V nachu gavan zakhodili korabli (В нашу гавань заходили корабли) diffusée sur Radio Rossii de 1997 à 2011.
 En 1973, il publie le livre pour enfants Oncle Fiodor, son chien et son chat. Ce livre est adapté par Vladimir Popov dans trois films d'animation : Les Trois de Prostokvachino (1978), Les Vacances à Prostokvachino (1980) et L'Hiver à Prostokvachino (1984).
 Mort dans sa maison dans l'oblast de Moscou du cancer de la prostate, l'artiste est inhumé au cimetière Troïekourovskoïe.
 </t>
